--- a/medicine/Enfance/Bo_Carpelan/Bo_Carpelan.xlsx
+++ b/medicine/Enfance/Bo_Carpelan/Bo_Carpelan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bo Gustaf Bertelsson Carpelan, né le 25 octobre 1926 à Helsinki en Finlande et mort le 11 février 2011 à Espoo, est un poète et écrivain finlandais d'expression suédoise[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bo Gustaf Bertelsson Carpelan, né le 25 octobre 1926 à Helsinki en Finlande et mort le 11 février 2011 à Espoo, est un poète et écrivain finlandais d'expression suédoise,.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bo Carpelan est le fils de d'Ebba Adele Lindhal et de Bertel Gustaf Carpelan, descendant d'une des plus anciennes familles nobles de Finlande : les Carpelan[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bo Carpelan est le fils de d'Ebba Adele Lindhal et de Bertel Gustaf Carpelan, descendant d'une des plus anciennes familles nobles de Finlande : les Carpelan.
 Il suit ses études au Lycée normal suédois puis à l'Université d'Helsinki (études de lettres, philosophie, psychologie et histoire), où il obtient sa licence en 1948 puis sa maîtrise en 1951. 
-En 1960 il soutient sa thèse consacrée au dadaïste Gunnar Björling[4].
+En 1960 il soutient sa thèse consacrée au dadaïste Gunnar Björling.
 Parallèlement à ses études il travaille à la Librairie Académique puis à la Bibliothèque de la rue Rikhardinkatu.
 De 1949 à 1964, Carpelan est critique littéraire au Hufvudstadsbladet, principal journal suédophone d'Helsinki.
-En 1954, il épouse Barbro Eriksson, dont il aura un fils Anders en 1957 et une fille Johanna en 1961[5].
+En 1954, il épouse Barbro Eriksson, dont il aura un fils Anders en 1957 et une fille Johanna en 1961.
 La famille vit à Espoo, dans le quartier de Tapiola.
 De 1964 à 1980, il est directeur-adjoint de la Bibliothèque municipale d'Helsinki.
 En 1980, Urho Kekkonen le fait Konstnär professor (professor artium), il quitte alors son poste pour se consacrer pleinement à l'écriture.
@@ -552,11 +566,48 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'ensemble des ouvrages de Carpelan sont publiés par l'éditeur Schildts Förlags Ab, Helsinki.
-Poésie
-recueils
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ensemble des ouvrages de Carpelan sont publiés par l'éditeur Schildts Förlags Ab, Helsinki.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bo_Carpelan</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bo_Carpelan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>recueils
  1946 – Som en dunkel värme (Telle une sombre chaleur)
  1947 – Du mörka överlevande
  1950 – Variationer
@@ -582,8 +633,43 @@
  2011 – Blad ur höstens arkiv
 anthologies
  1980 – Dikter från 30 år (Poèmes de 30 ans)
- 1996 – Novembercredo. Dikter i urval 1946–1996 (Credo de Novembre)
-Romans
+ 1996 – Novembercredo. Dikter i urval 1946–1996 (Credo de Novembre)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bo_Carpelan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bo_Carpelan</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
  1971 – Rösterna i den sena timmen
  1975 – Din gestalt bakom dörren
  1977 – Vandrande skugga, en småstadsberättelse
@@ -593,7 +679,43 @@
  1993 – Urwind (Le Vent des Origines)
  1997 – Benjamins bok
  2005 – Berg (Château)
-Livres pour enfants
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bo_Carpelan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bo_Carpelan</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Livres pour enfants</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
  1959 – Anders på ön (ill. de Ilon Wikland)
  1962 – Anders i stan (ill. de Ilon Wikland)
  1968 – Bågen, berättelsen om en sommar som var annorlunda
@@ -601,40 +723,112 @@
  1982 – Julius Blom – Ett huvud för sig
  1988 – Måla himlen. Vers för små och stora (ill. de Tord Nygren)
  1990 – Marvins bok
-Autres ouvrages
- 1988 – Det sjungande trädet, L'arbre chantant, livret de l'opéra d'Erik Bergman</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bo_Carpelan</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bo_Carpelan</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bo_Carpelan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bo_Carpelan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres ouvrages</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1988 – Det sjungande trädet, L'arbre chantant, livret de l'opéra d'Erik Bergman</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bo_Carpelan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bo_Carpelan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Traductions françaises</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>par ordre chronologique de parution : 
-poésie
-Vivre en dépit des jours : trois poètes du Nord : Bo Carpelan, Georg Johannesen, Lars Norén  (trad. Lucie Albertini et Carl-Gustaf Bjurström), Paris, F. Maspero, 1977, contient des extraits du recueil La Cour (1969).
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">par ordre chronologique de parution : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bo_Carpelan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bo_Carpelan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Traductions françaises</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>poésie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Vivre en dépit des jours : trois poètes du Nord : Bo Carpelan, Georg Johannesen, Lars Norén  (trad. Lucie Albertini et Carl-Gustaf Bjurström), Paris, F. Maspero, 1977, contient des extraits du recueil La Cour (1969).
 73 [Soixante-treize] poèmes  (trad. Lucie Albertini et Carl-Gustaf Bjurström), Paris, Obsidiane, 1984, 93 p.
 (fr + sv) Le jour cède, suivi de Bilan poétique intermédiaire  (trad. C. G. Bjurström et Lucie Albertini), Éditions Arfuyen, 1996
 La cour  (trad. Pierre Grouix), Saint-Pierre-la-Vieille, Atelier la Feugraie, 2000, 89 p.
@@ -646,38 +840,74 @@
 Le Jour frais  (trad. Pierre Grouix), Cordes-sur-Ciel, R. de Surtis, 2006, 61 p.
 (fr + sv) Dehors (Diktamina), suivi de Credo de novembre  (trad. du suédois par Pierre Grouix), Paris, Éditions Arfuyen, 2007, 162 p. (ISBN 978-2-84590-102-5).
 Le titre du tableau peint par Klee : poèmes en prose  (trad. Pierre Grouix), Montpellier, Éd. Grèges, 2007, 111 p.
-Ombre Sombre, Galaade, 2011 (ISBN 978-2-35176-033-8 et 2-35176-033-6).
-romans
-Axel  (trad. Lucie Albertini et Carl-Gustaf Bjurström), Paris, Gallimard, 1990.
+Ombre Sombre, Galaade, 2011 (ISBN 978-2-35176-033-8 et 2-35176-033-6).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bo_Carpelan</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bo_Carpelan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Traductions françaises</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>romans</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Axel  (trad. Lucie Albertini et Carl-Gustaf Bjurström), Paris, Gallimard, 1990.
 Le Vent des Origines  (trad. Lucie Albertini et Carl-Gustaf Bjurström), Paris, Gallimard, 1998.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Bo_Carpelan</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bo_Carpelan</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bo_Carpelan</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bo_Carpelan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Prix Tollander, 1958
 Prix national de littérature, 1969, 1972, 1987 et 1989
@@ -685,14 +915,14 @@
 Grand prix de littérature du Conseil nordique, 1977
 Médaille Pro Finlandia, 1978
 Prix Nils Ferlin,  1981
-(international) « Honour List » 1984[6] de l' IBBY, catégorie Auteur, pour Julius Blom – Ett huvud för sig
+(international) « Honour List » 1984 de l' IBBY, catégorie Auteur, pour Julius Blom – Ett huvud för sig
 Prix d'État de la traduction, 1986
 Prix Finlandia, 1993 et 2005
 Poeta Finlandiae, 1993
 Prix de l'ours dansant, 1996
 Prix nordique de l'Académie suédoise, 1997
 Prix Pilot, 1998
-Prix Européen de Littérature, 2007[7]</t>
+Prix Européen de Littérature, 2007</t>
         </is>
       </c>
     </row>
